--- a/Colisiones y Z index.xlsx
+++ b/Colisiones y Z index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Z INDEX</t>
   </si>
@@ -63,7 +63,16 @@
     <t>Estacion recarga</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Base Enemiga</t>
+  </si>
+  <si>
+    <t>BaseEnemiga</t>
+  </si>
+  <si>
+    <t>proectil enemigo</t>
+  </si>
+  <si>
+    <t>Estacion de Recarga</t>
   </si>
 </sst>
 </file>
@@ -457,18 +466,39 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -487,12 +517,17 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -558,12 +593,17 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
